--- a/Code/Results/Cases/Case_8_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9171693572731385</v>
+        <v>0.8760675140543412</v>
       </c>
       <c r="C2">
-        <v>0.1432301672082161</v>
+        <v>0.1553973418040044</v>
       </c>
       <c r="D2">
-        <v>0.07919507858094477</v>
+        <v>0.07868999991420367</v>
       </c>
       <c r="E2">
-        <v>0.0581677153148572</v>
+        <v>0.05987334562347968</v>
       </c>
       <c r="F2">
-        <v>0.5679213143690447</v>
+        <v>0.5106587895139398</v>
       </c>
       <c r="G2">
-        <v>0.0008184240016038038</v>
+        <v>0.01156824934374195</v>
       </c>
       <c r="H2">
-        <v>0.005174086016983936</v>
+        <v>0.003277931087573682</v>
       </c>
       <c r="I2">
-        <v>0.005016238686895491</v>
+        <v>0.002664963048715663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4408717877345829</v>
+        <v>0.3830356657236464</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1809708465666624</v>
       </c>
       <c r="M2">
-        <v>0.8334346198679157</v>
+        <v>0.1113399179610148</v>
       </c>
       <c r="N2">
-        <v>0.167498804479294</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2070908670059879</v>
+        <v>0.8456448466027382</v>
       </c>
       <c r="P2">
-        <v>0.9877241918016315</v>
+        <v>0.1790328404813124</v>
       </c>
       <c r="Q2">
-        <v>1.78639898863301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2024295224375905</v>
+      </c>
+      <c r="R2">
+        <v>0.9193507931942664</v>
+      </c>
+      <c r="S2">
+        <v>1.569088055405032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7993663712137788</v>
+        <v>0.7664238572666875</v>
       </c>
       <c r="C3">
-        <v>0.1333043739091124</v>
+        <v>0.14336244762044</v>
       </c>
       <c r="D3">
-        <v>0.07194759245265914</v>
+        <v>0.0704611654751659</v>
       </c>
       <c r="E3">
-        <v>0.05482878188668217</v>
+        <v>0.05726497760575633</v>
       </c>
       <c r="F3">
-        <v>0.5436427428150168</v>
+        <v>0.4879857601606332</v>
       </c>
       <c r="G3">
-        <v>0.0008210317167409771</v>
+        <v>0.01429956209716682</v>
       </c>
       <c r="H3">
-        <v>0.006870129118225321</v>
+        <v>0.004484119929636654</v>
       </c>
       <c r="I3">
-        <v>0.006628927909103854</v>
+        <v>0.003584033689201682</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4374664858618331</v>
+        <v>0.3809713726187383</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.184582124353831</v>
       </c>
       <c r="M3">
-        <v>0.7263801236431249</v>
+        <v>0.1077390741673234</v>
       </c>
       <c r="N3">
-        <v>0.1500529213316284</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1815175418409574</v>
+        <v>0.7390188217675586</v>
       </c>
       <c r="P3">
-        <v>1.017638853604692</v>
+        <v>0.1611242632848402</v>
       </c>
       <c r="Q3">
-        <v>1.747084824576476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.177684495307151</v>
+      </c>
+      <c r="R3">
+        <v>0.9444944249925147</v>
+      </c>
+      <c r="S3">
+        <v>1.532435272446605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7267186361146116</v>
+        <v>0.6985957637077433</v>
       </c>
       <c r="C4">
-        <v>0.1272338520158911</v>
+        <v>0.1360542242883724</v>
       </c>
       <c r="D4">
-        <v>0.06748960454633135</v>
+        <v>0.06541414767247034</v>
       </c>
       <c r="E4">
-        <v>0.05275012004603852</v>
+        <v>0.05563422152938102</v>
       </c>
       <c r="F4">
-        <v>0.529170568803778</v>
+        <v>0.4743016759379586</v>
       </c>
       <c r="G4">
-        <v>0.0008226928373228427</v>
+        <v>0.01618861384881898</v>
       </c>
       <c r="H4">
-        <v>0.008076689180213786</v>
+        <v>0.00535214620115354</v>
       </c>
       <c r="I4">
-        <v>0.007815864519661542</v>
+        <v>0.004295123926793654</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4355661571588314</v>
+        <v>0.3797705423861437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1868347634168259</v>
       </c>
       <c r="M4">
-        <v>0.6605630086562257</v>
+        <v>0.1060481556538448</v>
       </c>
       <c r="N4">
-        <v>0.1393546865757997</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1657805855814161</v>
+        <v>0.6733865298196235</v>
       </c>
       <c r="P4">
-        <v>1.036572491885591</v>
+        <v>0.1501584783162357</v>
       </c>
       <c r="Q4">
-        <v>1.724199045340924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1624324215080719</v>
+      </c>
+      <c r="R4">
+        <v>0.960434123813938</v>
+      </c>
+      <c r="S4">
+        <v>1.510528407598457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6963943411772959</v>
+        <v>0.6702018365746767</v>
       </c>
       <c r="C5">
-        <v>0.1249216305150114</v>
+        <v>0.1332776113688183</v>
       </c>
       <c r="D5">
-        <v>0.06571962429423195</v>
+        <v>0.06340941969798308</v>
       </c>
       <c r="E5">
-        <v>0.05186195461983978</v>
+        <v>0.05492991297014171</v>
       </c>
       <c r="F5">
-        <v>0.5229864081752069</v>
+        <v>0.4684006997458852</v>
       </c>
       <c r="G5">
-        <v>0.0008233895660785267</v>
+        <v>0.01701564220244817</v>
       </c>
       <c r="H5">
-        <v>0.008612109831099543</v>
+        <v>0.005739566832090481</v>
       </c>
       <c r="I5">
-        <v>0.008429151575510385</v>
+        <v>0.004711732826172543</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4344881586098097</v>
+        <v>0.3789683460105842</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1875985909545577</v>
       </c>
       <c r="M5">
-        <v>0.6336884113629964</v>
+        <v>0.10540498069299</v>
       </c>
       <c r="N5">
-        <v>0.1350547652624741</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1592892482041783</v>
+        <v>0.6465696434529065</v>
       </c>
       <c r="P5">
-        <v>1.044304031836128</v>
+        <v>0.1457547848051135</v>
       </c>
       <c r="Q5">
-        <v>1.713901672448756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1561335755449207</v>
+      </c>
+      <c r="R5">
+        <v>0.9669638833318643</v>
+      </c>
+      <c r="S5">
+        <v>1.500514412691061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6905722846317985</v>
+        <v>0.6647132445192199</v>
       </c>
       <c r="C6">
-        <v>0.1247318358003753</v>
+        <v>0.1330429509280009</v>
       </c>
       <c r="D6">
-        <v>0.06548587267156591</v>
+        <v>0.06313926379988999</v>
       </c>
       <c r="E6">
-        <v>0.05167286079298705</v>
+        <v>0.05477304920467851</v>
       </c>
       <c r="F6">
-        <v>0.5214869893809748</v>
+        <v>0.4669582965201116</v>
       </c>
       <c r="G6">
-        <v>0.0008235117547029721</v>
+        <v>0.01716302906003736</v>
       </c>
       <c r="H6">
-        <v>0.00870784419235883</v>
+        <v>0.005809112525595461</v>
       </c>
       <c r="I6">
-        <v>0.008641050675100459</v>
+        <v>0.004903235483742385</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4338840377227235</v>
+        <v>0.3784345200884225</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1875275290632885</v>
       </c>
       <c r="M6">
-        <v>0.6291900675320363</v>
+        <v>0.105202038589356</v>
       </c>
       <c r="N6">
-        <v>0.1344111414653355</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1581263171557872</v>
+        <v>0.6420804362631003</v>
       </c>
       <c r="P6">
-        <v>1.04544673580122</v>
+        <v>0.1450953447433534</v>
       </c>
       <c r="Q6">
-        <v>1.710650873442944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1550029851605075</v>
+      </c>
+      <c r="R6">
+        <v>0.9679482484702078</v>
+      </c>
+      <c r="S6">
+        <v>1.497357045701435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7241675054847292</v>
+        <v>0.6948715373831078</v>
       </c>
       <c r="C7">
-        <v>0.1277340713817878</v>
+        <v>0.1360782513522878</v>
       </c>
       <c r="D7">
-        <v>0.06763119908794124</v>
+        <v>0.06589742755414818</v>
       </c>
       <c r="E7">
-        <v>0.05262587463556123</v>
+        <v>0.05559172288891467</v>
       </c>
       <c r="F7">
-        <v>0.5277794264402473</v>
+        <v>0.4704919293617706</v>
       </c>
       <c r="G7">
-        <v>0.0008227171243891068</v>
+        <v>0.01659550161703538</v>
       </c>
       <c r="H7">
-        <v>0.008095180482557252</v>
+        <v>0.005376702152594004</v>
       </c>
       <c r="I7">
-        <v>0.008100483781138479</v>
+        <v>0.004622678704913064</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4343841204272572</v>
+        <v>0.3773616008223257</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1856935427575763</v>
       </c>
       <c r="M7">
-        <v>0.6601065638999728</v>
+        <v>0.1053850597512831</v>
       </c>
       <c r="N7">
-        <v>0.1394892501303815</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1654617202294872</v>
+        <v>0.6706989261882086</v>
       </c>
       <c r="P7">
-        <v>1.03628088694973</v>
+        <v>0.1501957635482682</v>
       </c>
       <c r="Q7">
-        <v>1.719804783485245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1618896038336928</v>
+      </c>
+      <c r="R7">
+        <v>0.959857223941416</v>
+      </c>
+      <c r="S7">
+        <v>1.498390688214499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8737519755617313</v>
+        <v>0.8314021256209116</v>
       </c>
       <c r="C8">
-        <v>0.1405152849599745</v>
+        <v>0.1501794108908143</v>
       </c>
       <c r="D8">
-        <v>0.07691968760244094</v>
+        <v>0.07723433186455964</v>
       </c>
       <c r="E8">
-        <v>0.05687423461643526</v>
+        <v>0.05909104031323764</v>
       </c>
       <c r="F8">
-        <v>0.5577291616028148</v>
+        <v>0.493007302956137</v>
       </c>
       <c r="G8">
-        <v>0.0008193294320165134</v>
+        <v>0.01441929726174251</v>
       </c>
       <c r="H8">
-        <v>0.005735710436299724</v>
+        <v>0.003703544301306483</v>
       </c>
       <c r="I8">
-        <v>0.005862758407044311</v>
+        <v>0.003356669933078926</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4381210479270692</v>
+        <v>0.3766375712662686</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1797052981662546</v>
       </c>
       <c r="M8">
-        <v>0.7964091147675845</v>
+        <v>0.1082232563239724</v>
       </c>
       <c r="N8">
-        <v>0.1617378370485056</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1979710406713693</v>
+        <v>0.8012888852220215</v>
       </c>
       <c r="P8">
-        <v>0.9974547052147638</v>
+        <v>0.1727863764148196</v>
       </c>
       <c r="Q8">
-        <v>1.766967887339419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1928374089412799</v>
+      </c>
+      <c r="R8">
+        <v>0.9266804209975765</v>
+      </c>
+      <c r="S8">
+        <v>1.525010796972836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.168545500604722</v>
+        <v>1.103424107439906</v>
       </c>
       <c r="C9">
-        <v>0.1649023645250267</v>
+        <v>0.1794259093755244</v>
       </c>
       <c r="D9">
-        <v>0.09479331178670947</v>
+        <v>0.09798460560618594</v>
       </c>
       <c r="E9">
-        <v>0.06519063872368136</v>
+        <v>0.06564347548173721</v>
       </c>
       <c r="F9">
-        <v>0.6224664255423704</v>
+        <v>0.5503378254340205</v>
       </c>
       <c r="G9">
-        <v>0.0008131298859628919</v>
+        <v>0.00906880343512384</v>
       </c>
       <c r="H9">
-        <v>0.002471931806028671</v>
+        <v>0.001433546374354</v>
       </c>
       <c r="I9">
-        <v>0.002691266575082452</v>
+        <v>0.001570169668934085</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4490980499304413</v>
+        <v>0.3824125753262422</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1713529658523925</v>
       </c>
       <c r="M9">
-        <v>1.063412082580044</v>
+        <v>0.1198072507592229</v>
       </c>
       <c r="N9">
-        <v>0.2051766594455557</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2618981065154067</v>
+        <v>1.064465470460561</v>
       </c>
       <c r="P9">
-        <v>0.9265459038475785</v>
+        <v>0.2173707452355558</v>
       </c>
       <c r="Q9">
-        <v>1.877516108337915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2543241000184118</v>
+      </c>
+      <c r="R9">
+        <v>0.8674305242426339</v>
+      </c>
+      <c r="S9">
+        <v>1.618066079847608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.375538133154294</v>
+        <v>1.286253314247375</v>
       </c>
       <c r="C10">
-        <v>0.1851763989812838</v>
+        <v>0.2001564031710927</v>
       </c>
       <c r="D10">
-        <v>0.1088911053887571</v>
+        <v>0.1164205885152967</v>
       </c>
       <c r="E10">
-        <v>0.06838764426966115</v>
+        <v>0.06816079455581914</v>
       </c>
       <c r="F10">
-        <v>0.6655995858165582</v>
+        <v>0.5738150970215443</v>
       </c>
       <c r="G10">
-        <v>0.0008089253503333413</v>
+        <v>0.01405024116259312</v>
       </c>
       <c r="H10">
-        <v>0.001275143222507324</v>
+        <v>0.0007414772553699933</v>
       </c>
       <c r="I10">
-        <v>0.001625068195101775</v>
+        <v>0.001254266151342165</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4526658228134153</v>
+        <v>0.3754673362294696</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1613170392261196</v>
       </c>
       <c r="M10">
-        <v>1.259034764514752</v>
+        <v>0.1261990243016449</v>
       </c>
       <c r="N10">
-        <v>0.225908268132585</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3022367038058746</v>
+        <v>1.243235042700462</v>
       </c>
       <c r="P10">
-        <v>0.8763301932013183</v>
+        <v>0.2381071962424386</v>
       </c>
       <c r="Q10">
-        <v>1.94346514995209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2915414886267769</v>
+      </c>
+      <c r="R10">
+        <v>0.8264950060959659</v>
+      </c>
+      <c r="S10">
+        <v>1.62669665867864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.403109521346323</v>
+        <v>1.29973510658408</v>
       </c>
       <c r="C11">
-        <v>0.2124979011100265</v>
+        <v>0.2212391020994176</v>
       </c>
       <c r="D11">
-        <v>0.1235812029969878</v>
+        <v>0.1372573930779168</v>
       </c>
       <c r="E11">
-        <v>0.0510096888180378</v>
+        <v>0.05211098797077796</v>
       </c>
       <c r="F11">
-        <v>0.6291781868441788</v>
+        <v>0.5138587473604517</v>
       </c>
       <c r="G11">
-        <v>0.0008076444662284177</v>
+        <v>0.04796301733700048</v>
       </c>
       <c r="H11">
-        <v>0.01991491982499838</v>
+        <v>0.01942251251966809</v>
       </c>
       <c r="I11">
-        <v>0.001945974133056971</v>
+        <v>0.00184290980459334</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4110701205936493</v>
+        <v>0.3276555678036388</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1418189701354695</v>
       </c>
       <c r="M11">
-        <v>1.343172470738352</v>
+        <v>0.1108626740110026</v>
       </c>
       <c r="N11">
-        <v>0.1478313538213882</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2661901008873535</v>
+        <v>1.296361489618562</v>
       </c>
       <c r="P11">
-        <v>0.8503988625207093</v>
+        <v>0.1566236558764018</v>
       </c>
       <c r="Q11">
-        <v>1.795000059414406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.253630333856222</v>
+      </c>
+      <c r="R11">
+        <v>0.8197526721352553</v>
+      </c>
+      <c r="S11">
+        <v>1.413038610774123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.385384145985682</v>
+        <v>1.280046657937561</v>
       </c>
       <c r="C12">
-        <v>0.2325312278260725</v>
+        <v>0.2368270622202289</v>
       </c>
       <c r="D12">
-        <v>0.1332753218989779</v>
+        <v>0.1500629209115374</v>
       </c>
       <c r="E12">
-        <v>0.04273147559383661</v>
+        <v>0.04425538659716421</v>
       </c>
       <c r="F12">
-        <v>0.5915202185134447</v>
+        <v>0.4701095540168723</v>
       </c>
       <c r="G12">
-        <v>0.0008073621937418166</v>
+        <v>0.07248230723877924</v>
       </c>
       <c r="H12">
-        <v>0.05873950907032821</v>
+        <v>0.05823039051588808</v>
       </c>
       <c r="I12">
-        <v>0.001916944993476832</v>
+        <v>0.001839220604874292</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3786252766691831</v>
+        <v>0.2973030830263852</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1308308276382064</v>
       </c>
       <c r="M12">
-        <v>1.372955080264035</v>
+        <v>0.09949265392634032</v>
       </c>
       <c r="N12">
-        <v>0.09299052777694783</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.229817370614569</v>
+        <v>1.311734644431908</v>
       </c>
       <c r="P12">
-        <v>0.8453082023646594</v>
+        <v>0.09963678931176645</v>
       </c>
       <c r="Q12">
-        <v>1.665082484602266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.217365669231711</v>
+      </c>
+      <c r="R12">
+        <v>0.8308103713390267</v>
+      </c>
+      <c r="S12">
+        <v>1.271675479762521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.328486396181688</v>
+        <v>1.23363434720946</v>
       </c>
       <c r="C13">
-        <v>0.2487115836773057</v>
+        <v>0.2522825017357491</v>
       </c>
       <c r="D13">
-        <v>0.1398455778187184</v>
+        <v>0.1560343211929194</v>
       </c>
       <c r="E13">
-        <v>0.0406834414376811</v>
+        <v>0.04235803735697496</v>
       </c>
       <c r="F13">
-        <v>0.548573315864985</v>
+        <v>0.4381039061774104</v>
       </c>
       <c r="G13">
-        <v>0.0008078526122782814</v>
+        <v>0.06679410115106066</v>
       </c>
       <c r="H13">
-        <v>0.1147388480621601</v>
+        <v>0.1141492594483822</v>
       </c>
       <c r="I13">
-        <v>0.001990875975982576</v>
+        <v>0.001830125126228488</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3494533512114408</v>
+        <v>0.2775632233459255</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1245694570221847</v>
       </c>
       <c r="M13">
-        <v>1.362168860806577</v>
+        <v>0.09074640208787521</v>
       </c>
       <c r="N13">
-        <v>0.05322103465540451</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1909568036757285</v>
+        <v>1.304842635938428</v>
       </c>
       <c r="P13">
-        <v>0.8545839777654258</v>
+        <v>0.05848052475322518</v>
       </c>
       <c r="Q13">
-        <v>1.534933548066903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1803706123077262</v>
+      </c>
+      <c r="R13">
+        <v>0.8487214368019735</v>
+      </c>
+      <c r="S13">
+        <v>1.179877528599434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270550692448182</v>
+        <v>1.188307212332631</v>
       </c>
       <c r="C14">
-        <v>0.2586733803473749</v>
+        <v>0.2637231393936617</v>
       </c>
       <c r="D14">
-        <v>0.1430991617857273</v>
+        <v>0.1570998659722562</v>
       </c>
       <c r="E14">
-        <v>0.04293772185773825</v>
+        <v>0.04483020551107852</v>
       </c>
       <c r="F14">
-        <v>0.516053800046258</v>
+        <v>0.4198648961263629</v>
       </c>
       <c r="G14">
-        <v>0.0008085470719477404</v>
+        <v>0.05027438228606584</v>
       </c>
       <c r="H14">
-        <v>0.1643032351861535</v>
+        <v>0.1636239460335673</v>
       </c>
       <c r="I14">
-        <v>0.002189561180125921</v>
+        <v>0.001928639730935267</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3305990172422781</v>
+        <v>0.2676528221247345</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.121825872148877</v>
       </c>
       <c r="M14">
-        <v>1.336228554854671</v>
+        <v>0.08564680411519809</v>
       </c>
       <c r="N14">
-        <v>0.0344848323983058</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1631365713367252</v>
+        <v>1.289657230411763</v>
       </c>
       <c r="P14">
-        <v>0.8680810519019602</v>
+        <v>0.03902373112896029</v>
       </c>
       <c r="Q14">
-        <v>1.443748455528507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1544488257660284</v>
+      </c>
+      <c r="R14">
+        <v>0.8630484535101957</v>
+      </c>
+      <c r="S14">
+        <v>1.133730735206058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.247454864263545</v>
+        <v>1.17057791062993</v>
       </c>
       <c r="C15">
-        <v>0.2603080566947682</v>
+        <v>0.2666689616087581</v>
       </c>
       <c r="D15">
-        <v>0.1432212857783526</v>
+        <v>0.1559401602020927</v>
       </c>
       <c r="E15">
-        <v>0.04391184048452423</v>
+        <v>0.04595708605377613</v>
       </c>
       <c r="F15">
-        <v>0.5065951569452167</v>
+        <v>0.4167226174672578</v>
       </c>
       <c r="G15">
-        <v>0.0008088946769329911</v>
+        <v>0.04190223322608944</v>
       </c>
       <c r="H15">
-        <v>0.1769134358806639</v>
+        <v>0.1761892565952081</v>
       </c>
       <c r="I15">
-        <v>0.00239224539600702</v>
+        <v>0.002098419022048326</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3262035998502419</v>
+        <v>0.2664832118044753</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1217143458777912</v>
       </c>
       <c r="M15">
-        <v>1.321227420284146</v>
+        <v>0.08465823824819552</v>
       </c>
       <c r="N15">
-        <v>0.03112743115013217</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.155549698733207</v>
+        <v>1.28070803728113</v>
       </c>
       <c r="P15">
-        <v>0.8737212650450097</v>
+        <v>0.03555708016849835</v>
       </c>
       <c r="Q15">
-        <v>1.419943030017961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1475813841641056</v>
+      </c>
+      <c r="R15">
+        <v>0.8667513124686224</v>
+      </c>
+      <c r="S15">
+        <v>1.128724036872455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.170038391105095</v>
+        <v>1.112439791197517</v>
       </c>
       <c r="C16">
-        <v>0.248012214616864</v>
+        <v>0.2618566702075924</v>
       </c>
       <c r="D16">
-        <v>0.1356499563494395</v>
+        <v>0.1422951462043613</v>
       </c>
       <c r="E16">
-        <v>0.04289581830263156</v>
+        <v>0.04568744857444873</v>
       </c>
       <c r="F16">
-        <v>0.4960904876332961</v>
+        <v>0.4300656399489355</v>
       </c>
       <c r="G16">
-        <v>0.0008105937062860558</v>
+        <v>0.01398193109374724</v>
       </c>
       <c r="H16">
-        <v>0.1647150163483957</v>
+        <v>0.1637440604037721</v>
       </c>
       <c r="I16">
-        <v>0.002939655792817852</v>
+        <v>0.002373069436011122</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3299843681877981</v>
+        <v>0.2793135012443742</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.127643418651946</v>
       </c>
       <c r="M16">
-        <v>1.238964895565971</v>
+        <v>0.08728922867347499</v>
       </c>
       <c r="N16">
-        <v>0.0314228618869965</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1470993447871329</v>
+        <v>1.226641734737171</v>
       </c>
       <c r="P16">
-        <v>0.8907851800678834</v>
+        <v>0.03641103891081343</v>
       </c>
       <c r="Q16">
-        <v>1.415680104932861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1414234786133832</v>
+      </c>
+      <c r="R16">
+        <v>0.8672287007751152</v>
+      </c>
+      <c r="S16">
+        <v>1.19103441342132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.141244939614012</v>
+        <v>1.08988793414207</v>
       </c>
       <c r="C17">
-        <v>0.2332519453245538</v>
+        <v>0.2503413246388817</v>
       </c>
       <c r="D17">
-        <v>0.1281358870585478</v>
+        <v>0.1322366446449195</v>
       </c>
       <c r="E17">
-        <v>0.04030701850386809</v>
+        <v>0.04322165870450156</v>
       </c>
       <c r="F17">
-        <v>0.5052695617094898</v>
+        <v>0.4476340761501447</v>
       </c>
       <c r="G17">
-        <v>0.0008115338516103531</v>
+        <v>0.008242736901271641</v>
       </c>
       <c r="H17">
-        <v>0.1272413989164818</v>
+        <v>0.1261260604888292</v>
       </c>
       <c r="I17">
-        <v>0.003293205708322589</v>
+        <v>0.002567667147632235</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3427266124916208</v>
+        <v>0.2939835037322354</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1339089801769582</v>
       </c>
       <c r="M17">
-        <v>1.189799686135331</v>
+        <v>0.0915240847008878</v>
       </c>
       <c r="N17">
-        <v>0.04004096300520033</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1549836394390063</v>
+        <v>1.189425332304779</v>
       </c>
       <c r="P17">
-        <v>0.8967361606002591</v>
+        <v>0.04590134916423949</v>
       </c>
       <c r="Q17">
-        <v>1.460540059752717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1499692959010126</v>
+      </c>
+      <c r="R17">
+        <v>0.8640794278542927</v>
+      </c>
+      <c r="S17">
+        <v>1.257872197586124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.152581121980432</v>
+        <v>1.099910027530427</v>
       </c>
       <c r="C18">
-        <v>0.2149282313005187</v>
+        <v>0.2333777413581686</v>
       </c>
       <c r="D18">
-        <v>0.1198550190054135</v>
+        <v>0.1230276276255466</v>
       </c>
       <c r="E18">
-        <v>0.03941631383734998</v>
+        <v>0.04188613328664603</v>
       </c>
       <c r="F18">
-        <v>0.5335947062849584</v>
+        <v>0.476599723946066</v>
       </c>
       <c r="G18">
-        <v>0.0008118793530575718</v>
+        <v>0.006937781005349475</v>
       </c>
       <c r="H18">
-        <v>0.07444114620852815</v>
+        <v>0.0732941466424748</v>
       </c>
       <c r="I18">
-        <v>0.003153557826260922</v>
+        <v>0.002331432026420721</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3662761353726438</v>
+        <v>0.3152437298584054</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1423429515747827</v>
       </c>
       <c r="M18">
-        <v>1.163437690885814</v>
+        <v>0.09883852330778531</v>
       </c>
       <c r="N18">
-        <v>0.06457564245367209</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1792458867101736</v>
+        <v>1.167884990447703</v>
       </c>
       <c r="P18">
-        <v>0.8962743213828368</v>
+        <v>0.07187238451138001</v>
       </c>
       <c r="Q18">
-        <v>1.557512252579528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1739753260564747</v>
+      </c>
+      <c r="R18">
+        <v>0.8570341087198337</v>
+      </c>
+      <c r="S18">
+        <v>1.353919933197957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.19144384239948</v>
+        <v>1.132706457617445</v>
       </c>
       <c r="C19">
-        <v>0.1978857770529601</v>
+        <v>0.2167395011127553</v>
       </c>
       <c r="D19">
-        <v>0.112221414428582</v>
+        <v>0.1153534785847867</v>
       </c>
       <c r="E19">
-        <v>0.04489740268016185</v>
+        <v>0.04644805231944193</v>
       </c>
       <c r="F19">
-        <v>0.5737639923872351</v>
+        <v>0.5129421232918858</v>
       </c>
       <c r="G19">
-        <v>0.0008117026101538416</v>
+        <v>0.006512931792102439</v>
       </c>
       <c r="H19">
-        <v>0.02886535437142612</v>
+        <v>0.0278116997405391</v>
       </c>
       <c r="I19">
-        <v>0.003171062078256348</v>
+        <v>0.002423381507973055</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3966663122908649</v>
+        <v>0.34069139605365</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.151993851024752</v>
       </c>
       <c r="M19">
-        <v>1.157065039837107</v>
+        <v>0.1082858832371727</v>
       </c>
       <c r="N19">
-        <v>0.1121240405643178</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2166954982430092</v>
+        <v>1.162533490685405</v>
       </c>
       <c r="P19">
-        <v>0.8950096455312941</v>
+        <v>0.1214059891084176</v>
       </c>
       <c r="Q19">
-        <v>1.68632701243186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2105436115295518</v>
+      </c>
+      <c r="R19">
+        <v>0.8502069874454818</v>
+      </c>
+      <c r="S19">
+        <v>1.468445407768584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.314117862542588</v>
+        <v>1.236158091443258</v>
       </c>
       <c r="C20">
-        <v>0.1816690257541751</v>
+        <v>0.1990185893370437</v>
       </c>
       <c r="D20">
-        <v>0.1057645972390517</v>
+        <v>0.1108473270170052</v>
       </c>
       <c r="E20">
-        <v>0.06709908522570451</v>
+        <v>0.0668056206923211</v>
       </c>
       <c r="F20">
-        <v>0.6497802021674985</v>
+        <v>0.5721079719752211</v>
       </c>
       <c r="G20">
-        <v>0.0008100531277033721</v>
+        <v>0.007679674524954549</v>
       </c>
       <c r="H20">
-        <v>0.001526307101781921</v>
+        <v>0.0008595404428244358</v>
       </c>
       <c r="I20">
-        <v>0.00265811632476165</v>
+        <v>0.002245893256986875</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4479008131825495</v>
+        <v>0.3782738147671871</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1642292889641723</v>
       </c>
       <c r="M20">
-        <v>1.20731092163706</v>
+        <v>0.1248208323796973</v>
       </c>
       <c r="N20">
-        <v>0.2205805327218116</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2906530379281804</v>
+        <v>1.20434530173074</v>
       </c>
       <c r="P20">
-        <v>0.8884818281969866</v>
+        <v>0.2331193760755781</v>
       </c>
       <c r="Q20">
-        <v>1.911742505388361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2816504505148103</v>
+      </c>
+      <c r="R20">
+        <v>0.8369310743530516</v>
+      </c>
+      <c r="S20">
+        <v>1.638478701154298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.485063170093525</v>
+        <v>1.361919780766641</v>
       </c>
       <c r="C21">
-        <v>0.1942865079546152</v>
+        <v>0.2008759202319794</v>
       </c>
       <c r="D21">
-        <v>0.1151398701294966</v>
+        <v>0.1308908898808596</v>
       </c>
       <c r="E21">
-        <v>0.07383890063099408</v>
+        <v>0.07436953215757036</v>
       </c>
       <c r="F21">
-        <v>0.6944654205973109</v>
+        <v>0.5552262498560623</v>
       </c>
       <c r="G21">
-        <v>0.0008067926567685828</v>
+        <v>0.06893330866228808</v>
       </c>
       <c r="H21">
-        <v>0.0005367384323160529</v>
+        <v>0.0002484390606101172</v>
       </c>
       <c r="I21">
-        <v>0.002000629035144641</v>
+        <v>0.002071386472035641</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4594756333543586</v>
+        <v>0.3576801483144472</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1517193041242848</v>
       </c>
       <c r="M21">
-        <v>1.358421942775095</v>
+        <v>0.1238054451362913</v>
       </c>
       <c r="N21">
-        <v>0.2541643616609406</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3316541575484848</v>
+        <v>1.298257711164723</v>
       </c>
       <c r="P21">
-        <v>0.85277620282124</v>
+        <v>0.265394879672499</v>
       </c>
       <c r="Q21">
-        <v>1.999205024727786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3153891477604631</v>
+      </c>
+      <c r="R21">
+        <v>0.8083694665671999</v>
+      </c>
+      <c r="S21">
+        <v>1.536135403371219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.595835689235571</v>
+        <v>1.441005870699797</v>
       </c>
       <c r="C22">
-        <v>0.2028065057156283</v>
+        <v>0.2020317369683227</v>
       </c>
       <c r="D22">
-        <v>0.1214962722753583</v>
+        <v>0.1452161369715128</v>
       </c>
       <c r="E22">
-        <v>0.07697661301432746</v>
+        <v>0.07842457212659326</v>
       </c>
       <c r="F22">
-        <v>0.7226978616676547</v>
+        <v>0.5403529659150905</v>
       </c>
       <c r="G22">
-        <v>0.0008047291487676866</v>
+        <v>0.1577836970411823</v>
       </c>
       <c r="H22">
-        <v>0.0002110635815046891</v>
+        <v>7.922665770632165E-05</v>
       </c>
       <c r="I22">
-        <v>0.001493218571989807</v>
+        <v>0.001707647156504066</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.466207394894262</v>
+        <v>0.3423975144025029</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1435222497503243</v>
       </c>
       <c r="M22">
-        <v>1.457165530218958</v>
+        <v>0.1222287965467608</v>
       </c>
       <c r="N22">
-        <v>0.2700651122605251</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3555034197654052</v>
+        <v>1.355684264185101</v>
       </c>
       <c r="P22">
-        <v>0.8298208827717499</v>
+        <v>0.2801374524392202</v>
       </c>
       <c r="Q22">
-        <v>2.052996557564569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3341002791470586</v>
+      </c>
+      <c r="R22">
+        <v>0.7934205354050832</v>
+      </c>
+      <c r="S22">
+        <v>1.458870488645715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.539346279581707</v>
+        <v>1.404778475272252</v>
       </c>
       <c r="C23">
-        <v>0.197578100451949</v>
+        <v>0.2020343750972984</v>
       </c>
       <c r="D23">
-        <v>0.1178961628852804</v>
+        <v>0.1362328473450845</v>
       </c>
       <c r="E23">
-        <v>0.07543348357513047</v>
+        <v>0.07612570602097968</v>
       </c>
       <c r="F23">
-        <v>0.709106314560934</v>
+        <v>0.5556319575901156</v>
       </c>
       <c r="G23">
-        <v>0.0008058124106134872</v>
+        <v>0.09197443993167553</v>
       </c>
       <c r="H23">
-        <v>0.0003633871898369723</v>
+        <v>0.0001534686904678395</v>
       </c>
       <c r="I23">
-        <v>0.001428554806794935</v>
+        <v>0.001515853870368566</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4639349236911556</v>
+        <v>0.3545769922159927</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1491648934893952</v>
       </c>
       <c r="M23">
-        <v>1.404576777391583</v>
+        <v>0.1247921168689565</v>
       </c>
       <c r="N23">
-        <v>0.2613356283641224</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3430565930026361</v>
+        <v>1.331246787771931</v>
       </c>
       <c r="P23">
-        <v>0.8422795645362933</v>
+        <v>0.2722713882212844</v>
       </c>
       <c r="Q23">
-        <v>2.029069416576334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3250297495296124</v>
+      </c>
+      <c r="R23">
+        <v>0.8002889130172086</v>
+      </c>
+      <c r="S23">
+        <v>1.522573817605206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.320974284083974</v>
+        <v>1.242495202808612</v>
       </c>
       <c r="C24">
-        <v>0.1790350720850142</v>
+        <v>0.1961933021161713</v>
       </c>
       <c r="D24">
-        <v>0.104608614072454</v>
+        <v>0.109585932117227</v>
       </c>
       <c r="E24">
-        <v>0.06935924443414798</v>
+        <v>0.06891470924719911</v>
       </c>
       <c r="F24">
-        <v>0.6564265292369811</v>
+        <v>0.5785297291433409</v>
       </c>
       <c r="G24">
-        <v>0.0008100293855581406</v>
+        <v>0.007468000517378393</v>
       </c>
       <c r="H24">
-        <v>0.001348668614067128</v>
+        <v>0.0006985387170217461</v>
       </c>
       <c r="I24">
-        <v>0.002136742586217544</v>
+        <v>0.001636429068118339</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4537118404510139</v>
+        <v>0.3834173529600058</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1661919898172073</v>
       </c>
       <c r="M24">
-        <v>1.205460197618493</v>
+        <v>0.1267140823467159</v>
       </c>
       <c r="N24">
-        <v>0.2287565323879051</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2954822874994463</v>
+        <v>1.202940367953573</v>
       </c>
       <c r="P24">
-        <v>0.8903141105974264</v>
+        <v>0.2415600541939398</v>
       </c>
       <c r="Q24">
-        <v>1.934028553055953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2864012930151105</v>
+      </c>
+      <c r="R24">
+        <v>0.8375192356444412</v>
+      </c>
+      <c r="S24">
+        <v>1.659562839782382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085085295148303</v>
+        <v>1.028234749648846</v>
       </c>
       <c r="C25">
-        <v>0.1592579922426012</v>
+        <v>0.1734456845771177</v>
       </c>
       <c r="D25">
-        <v>0.09026787802620362</v>
+        <v>0.09217895461952708</v>
       </c>
       <c r="E25">
-        <v>0.06276094756403872</v>
+        <v>0.0635940701741351</v>
       </c>
       <c r="F25">
-        <v>0.6021727274394166</v>
+        <v>0.5358036526606327</v>
       </c>
       <c r="G25">
-        <v>0.0008147815711918575</v>
+        <v>0.009234675660558356</v>
       </c>
       <c r="H25">
-        <v>0.00320876847095386</v>
+        <v>0.001926474744899598</v>
       </c>
       <c r="I25">
-        <v>0.003826299404084743</v>
+        <v>0.002442148121776455</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4438699627330109</v>
+        <v>0.3806861673171547</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1735390025487256</v>
       </c>
       <c r="M25">
-        <v>0.9910147645007612</v>
+        <v>0.116196511022931</v>
       </c>
       <c r="N25">
-        <v>0.1937581359659646</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2441979028004937</v>
+        <v>0.9964586028370093</v>
       </c>
       <c r="P25">
-        <v>0.9446807815074876</v>
+        <v>0.2057780699958585</v>
       </c>
       <c r="Q25">
-        <v>1.838787996391034</v>
+        <v>0.2376470717778076</v>
+      </c>
+      <c r="R25">
+        <v>0.8830358425429532</v>
+      </c>
+      <c r="S25">
+        <v>1.596152977966284</v>
       </c>
     </row>
   </sheetData>
